--- a/tt.xlsx
+++ b/tt.xlsx
@@ -50,31 +50,31 @@
     <t xml:space="preserve">Accu_threshold</t>
   </si>
   <si>
+    <t xml:space="preserve">svmRadial</t>
+  </si>
+  <si>
+    <t xml:space="preserve">PASS</t>
+  </si>
+  <si>
     <t xml:space="preserve">naive_bayes</t>
   </si>
   <si>
-    <t xml:space="preserve">PASS</t>
-  </si>
-  <si>
-    <t xml:space="preserve">svmRadial</t>
-  </si>
-  <si>
     <t xml:space="preserve">nnet</t>
   </si>
   <si>
+    <t xml:space="preserve">rf</t>
+  </si>
+  <si>
+    <t xml:space="preserve">X</t>
+  </si>
+  <si>
+    <t xml:space="preserve">gbm</t>
+  </si>
+  <si>
     <t xml:space="preserve">kknn</t>
   </si>
   <si>
-    <t xml:space="preserve">rf</t>
-  </si>
-  <si>
-    <t xml:space="preserve">X</t>
-  </si>
-  <si>
     <t xml:space="preserve">xgbTree</t>
-  </si>
-  <si>
-    <t xml:space="preserve">gbm</t>
   </si>
 </sst>
 </file>
@@ -449,34 +449,34 @@
         <v>12</v>
       </c>
       <c r="B2" t="n">
-        <v>0.821499368030057</v>
+        <v>0.747764492038169</v>
       </c>
       <c r="C2" t="n">
-        <v>0.324216284451925</v>
+        <v>0.365058910162003</v>
       </c>
       <c r="D2" t="n">
-        <v>0.0340842065309071</v>
+        <v>0.0659479786772346</v>
       </c>
       <c r="E2" t="n">
-        <v>0.059339466462468</v>
+        <v>0.111685488519331</v>
       </c>
       <c r="F2" t="n">
-        <v>0.67070570941319</v>
+        <v>0.586470118416247</v>
       </c>
       <c r="G2" t="n">
-        <v>0.116329167894187</v>
+        <v>0.0100987885895307</v>
       </c>
       <c r="H2" t="n">
-        <v>0.129274282991143</v>
+        <v>0.0435163932823482</v>
       </c>
       <c r="I2" t="n">
-        <v>0.0126231422307582</v>
+        <v>0.00525619673824198</v>
       </c>
       <c r="J2" t="n">
-        <v>0.0169739183789904</v>
+        <v>0.00953491204196938</v>
       </c>
       <c r="K2" t="n">
-        <v>0.0303890563741991</v>
+        <v>0.0182680800178725</v>
       </c>
       <c r="L2" t="s">
         <v>13</v>
@@ -487,34 +487,34 @@
         <v>14</v>
       </c>
       <c r="B3" t="n">
-        <v>0.769364957060797</v>
+        <v>0.653087041444555</v>
       </c>
       <c r="C3" t="n">
-        <v>0.403613507258574</v>
+        <v>0.449900063118031</v>
       </c>
       <c r="D3" t="n">
-        <v>0.0268422336780721</v>
+        <v>0.0573754617034104</v>
       </c>
       <c r="E3" t="n">
-        <v>0.0503286058184809</v>
+        <v>0.101711869415488</v>
       </c>
       <c r="F3" t="n">
-        <v>0.65413330481204</v>
+        <v>0.56636039151044</v>
       </c>
       <c r="G3" t="n">
-        <v>0.0136468891996852</v>
+        <v>0.0275660749823325</v>
       </c>
       <c r="H3" t="n">
-        <v>0.0133990985697544</v>
+        <v>0.0234729961982182</v>
       </c>
       <c r="I3" t="n">
-        <v>0.001843655019064</v>
+        <v>0.00392844609157716</v>
       </c>
       <c r="J3" t="n">
-        <v>0.003297329519186</v>
+        <v>0.00611486634068377</v>
       </c>
       <c r="K3" t="n">
-        <v>0.00481676097495566</v>
+        <v>0.0280629369558677</v>
       </c>
       <c r="L3" t="s">
         <v>13</v>
@@ -525,34 +525,34 @@
         <v>15</v>
       </c>
       <c r="B4" t="n">
-        <v>0.670401149211717</v>
+        <v>0.734328692149277</v>
       </c>
       <c r="C4" t="n">
-        <v>0.513859667578372</v>
+        <v>0.326530612244898</v>
       </c>
       <c r="D4" t="n">
-        <v>0.0235101501118935</v>
+        <v>0.056363223714253</v>
       </c>
       <c r="E4" t="n">
-        <v>0.0448981233254779</v>
+        <v>0.0997500286106933</v>
       </c>
       <c r="F4" t="n">
-        <v>0.644628559013182</v>
+        <v>0.563039513018209</v>
       </c>
       <c r="G4" t="n">
-        <v>0.0687068897125737</v>
+        <v>0.149400612847152</v>
       </c>
       <c r="H4" t="n">
-        <v>0.111129478657151</v>
+        <v>0.236431989042402</v>
       </c>
       <c r="I4" t="n">
-        <v>0.00126716645941939</v>
+        <v>0.0116272595119868</v>
       </c>
       <c r="J4" t="n">
-        <v>0.00257087291861691</v>
+        <v>0.0210725947298221</v>
       </c>
       <c r="K4" t="n">
-        <v>0.0123856847928614</v>
+        <v>0.0451183205450157</v>
       </c>
       <c r="L4" t="s">
         <v>13</v>
@@ -563,75 +563,75 @@
         <v>16</v>
       </c>
       <c r="B5" t="n">
-        <v>0.750882415026907</v>
+        <v>0.558609621786924</v>
       </c>
       <c r="C5" t="n">
-        <v>0.37762991794656</v>
+        <v>0.53808121186619</v>
       </c>
       <c r="D5" t="n">
-        <v>0.0233521099200239</v>
+        <v>0.0521435352825091</v>
       </c>
       <c r="E5" t="n">
-        <v>0.0439824177809262</v>
+        <v>0.0935002439977564</v>
       </c>
       <c r="F5" t="n">
-        <v>0.610490060189703</v>
+        <v>0.579591362753585</v>
       </c>
       <c r="G5" t="n">
-        <v>0.00832672983676976</v>
+        <v>0.182021276537269</v>
       </c>
       <c r="H5" t="n">
-        <v>0.0778540232208527</v>
+        <v>0.256310128222843</v>
       </c>
       <c r="I5" t="n">
-        <v>0.00553731520136186</v>
+        <v>0.00246858431852295</v>
       </c>
       <c r="J5" t="n">
-        <v>0.0103475543447471</v>
+        <v>0.00893311768490141</v>
       </c>
       <c r="K5" t="n">
-        <v>0.0192108620209148</v>
+        <v>0.0235649970088963</v>
       </c>
       <c r="L5" t="s">
-        <v>13</v>
+        <v>17</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="s">
+        <v>18</v>
+      </c>
+      <c r="B6" t="n">
+        <v>0.114577142662297</v>
+      </c>
+      <c r="C6" t="n">
+        <v>0.951293919629708</v>
+      </c>
+      <c r="D6" t="n">
+        <v>0.0448989513726513</v>
+      </c>
+      <c r="E6" t="n">
+        <v>0.0857279717418042</v>
+      </c>
+      <c r="F6" t="n">
+        <v>0.532649278387774</v>
+      </c>
+      <c r="G6" t="n">
+        <v>0.076182128194631</v>
+      </c>
+      <c r="H6" t="n">
+        <v>0.0467479190345437</v>
+      </c>
+      <c r="I6" t="n">
+        <v>0.00188760858159914</v>
+      </c>
+      <c r="J6" t="n">
+        <v>0.00325730630345265</v>
+      </c>
+      <c r="K6" t="n">
+        <v>0.0151628849025743</v>
+      </c>
+      <c r="L6" t="s">
         <v>17</v>
-      </c>
-      <c r="B6" t="n">
-        <v>0.320064699095867</v>
-      </c>
-      <c r="C6" t="n">
-        <v>0.799153166421208</v>
-      </c>
-      <c r="D6" t="n">
-        <v>0.0180366581459534</v>
-      </c>
-      <c r="E6" t="n">
-        <v>0.0352381974202964</v>
-      </c>
-      <c r="F6" t="n">
-        <v>0.569410240817685</v>
-      </c>
-      <c r="G6" t="n">
-        <v>0.176679199226688</v>
-      </c>
-      <c r="H6" t="n">
-        <v>0.0990244584453842</v>
-      </c>
-      <c r="I6" t="n">
-        <v>0.00292222560450941</v>
-      </c>
-      <c r="J6" t="n">
-        <v>0.00550286157644281</v>
-      </c>
-      <c r="K6" t="n">
-        <v>0.0656861236891365</v>
-      </c>
-      <c r="L6" t="s">
-        <v>18</v>
       </c>
     </row>
     <row r="7">
@@ -639,37 +639,37 @@
         <v>19</v>
       </c>
       <c r="B7" t="n">
-        <v>0.019258137483461</v>
+        <v>0.675246313715169</v>
       </c>
       <c r="C7" t="n">
-        <v>1</v>
+        <v>0.344440353460972</v>
       </c>
       <c r="D7" t="n">
-        <v>0.0151671737777741</v>
+        <v>0.0485503853529809</v>
       </c>
       <c r="E7" t="n">
-        <v>0.0298811125805733</v>
+        <v>0.0850780706534837</v>
       </c>
       <c r="F7" t="n">
-        <v>0.530001056285202</v>
+        <v>0.53443974826651</v>
       </c>
       <c r="G7" t="n">
-        <v>0.00343087622749839</v>
+        <v>0.0243307150799008</v>
       </c>
       <c r="H7" t="n">
-        <v>0</v>
+        <v>0.0589297187714827</v>
       </c>
       <c r="I7" t="n">
-        <v>0.000125570428014155</v>
+        <v>0.010247297776133</v>
       </c>
       <c r="J7" t="n">
-        <v>0.000243664504351847</v>
+        <v>0.0175242336428891</v>
       </c>
       <c r="K7" t="n">
-        <v>0.0094881529741627</v>
+        <v>0.0285976987342888</v>
       </c>
       <c r="L7" t="s">
-        <v>18</v>
+        <v>13</v>
       </c>
     </row>
     <row r="8">
@@ -677,37 +677,37 @@
         <v>20</v>
       </c>
       <c r="B8" t="n">
-        <v>0.0283057312087141</v>
+        <v>0.0762044437353566</v>
       </c>
       <c r="C8" t="n">
-        <v>0.98971702082895</v>
+        <v>0.979460340837366</v>
       </c>
       <c r="D8" t="n">
-        <v>0.0151534115970976</v>
+        <v>0.044185447840095</v>
       </c>
       <c r="E8" t="n">
-        <v>0.0298497113330758</v>
+        <v>0.0845521577570283</v>
       </c>
       <c r="F8" t="n">
-        <v>0.529456069822966</v>
+        <v>0.518806559752952</v>
       </c>
       <c r="G8" t="n">
-        <v>0.0147503767501379</v>
+        <v>0.0357133696829064</v>
       </c>
       <c r="H8" t="n">
-        <v>0.0145796161404948</v>
+        <v>0.0187650373964173</v>
       </c>
       <c r="I8" t="n">
-        <v>0.0000742568020712911</v>
+        <v>0.000943795937230231</v>
       </c>
       <c r="J8" t="n">
-        <v>0.00014352352405682</v>
+        <v>0.00165979298647141</v>
       </c>
       <c r="K8" t="n">
-        <v>0.00872434763753243</v>
+        <v>0.0108101396598737</v>
       </c>
       <c r="L8" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
     </row>
   </sheetData>

--- a/tt.xlsx
+++ b/tt.xlsx
@@ -56,25 +56,25 @@
     <t xml:space="preserve">PASS</t>
   </si>
   <si>
+    <t xml:space="preserve">rf</t>
+  </si>
+  <si>
+    <t xml:space="preserve">gbm</t>
+  </si>
+  <si>
+    <t xml:space="preserve">X</t>
+  </si>
+  <si>
+    <t xml:space="preserve">xgbTree</t>
+  </si>
+  <si>
+    <t xml:space="preserve">nnet</t>
+  </si>
+  <si>
+    <t xml:space="preserve">kknn</t>
+  </si>
+  <si>
     <t xml:space="preserve">naive_bayes</t>
-  </si>
-  <si>
-    <t xml:space="preserve">nnet</t>
-  </si>
-  <si>
-    <t xml:space="preserve">rf</t>
-  </si>
-  <si>
-    <t xml:space="preserve">X</t>
-  </si>
-  <si>
-    <t xml:space="preserve">gbm</t>
-  </si>
-  <si>
-    <t xml:space="preserve">kknn</t>
-  </si>
-  <si>
-    <t xml:space="preserve">xgbTree</t>
   </si>
 </sst>
 </file>
@@ -449,34 +449,34 @@
         <v>12</v>
       </c>
       <c r="B2" t="n">
-        <v>0.747764492038169</v>
+        <v>0.721341463414634</v>
       </c>
       <c r="C2" t="n">
-        <v>0.365058910162003</v>
+        <v>0.372596153846154</v>
       </c>
       <c r="D2" t="n">
-        <v>0.0659479786772346</v>
+        <v>0.192098139624692</v>
       </c>
       <c r="E2" t="n">
-        <v>0.111685488519331</v>
+        <v>0.253439752543325</v>
       </c>
       <c r="F2" t="n">
-        <v>0.586470118416247</v>
+        <v>0.595123146755479</v>
       </c>
       <c r="G2" t="n">
-        <v>0.0100987885895307</v>
+        <v>0.0149524993152435</v>
       </c>
       <c r="H2" t="n">
-        <v>0.0435163932823482</v>
+        <v>0.0432692307692308</v>
       </c>
       <c r="I2" t="n">
-        <v>0.00525619673824198</v>
+        <v>0.0237999334904843</v>
       </c>
       <c r="J2" t="n">
-        <v>0.00953491204196938</v>
+        <v>0.0303998286030783</v>
       </c>
       <c r="K2" t="n">
-        <v>0.0182680800178725</v>
+        <v>0.0264909578202924</v>
       </c>
       <c r="L2" t="s">
         <v>13</v>
@@ -487,34 +487,34 @@
         <v>14</v>
       </c>
       <c r="B3" t="n">
-        <v>0.653087041444555</v>
+        <v>0.642378048780488</v>
       </c>
       <c r="C3" t="n">
-        <v>0.449900063118031</v>
+        <v>0.483173076923077</v>
       </c>
       <c r="D3" t="n">
-        <v>0.0573754617034104</v>
+        <v>0.183286225217901</v>
       </c>
       <c r="E3" t="n">
-        <v>0.101711869415488</v>
+        <v>0.252062472185136</v>
       </c>
       <c r="F3" t="n">
-        <v>0.56636039151044</v>
+        <v>0.604629418242372</v>
       </c>
       <c r="G3" t="n">
-        <v>0.0275660749823325</v>
+        <v>0.156286011118927</v>
       </c>
       <c r="H3" t="n">
-        <v>0.0234729961982182</v>
+        <v>0.238954076736419</v>
       </c>
       <c r="I3" t="n">
-        <v>0.00392844609157716</v>
+        <v>0.030595748815142</v>
       </c>
       <c r="J3" t="n">
-        <v>0.00611486634068377</v>
+        <v>0.0325418763611223</v>
       </c>
       <c r="K3" t="n">
-        <v>0.0280629369558677</v>
+        <v>0.0467367971484928</v>
       </c>
       <c r="L3" t="s">
         <v>13</v>
@@ -525,75 +525,75 @@
         <v>15</v>
       </c>
       <c r="B4" t="n">
-        <v>0.734328692149277</v>
+        <v>0.360975609756098</v>
       </c>
       <c r="C4" t="n">
-        <v>0.326530612244898</v>
+        <v>0.776442307692308</v>
       </c>
       <c r="D4" t="n">
-        <v>0.056363223714253</v>
+        <v>0.144117765411724</v>
       </c>
       <c r="E4" t="n">
-        <v>0.0997500286106933</v>
+        <v>0.237589546170151</v>
       </c>
       <c r="F4" t="n">
-        <v>0.563039513018209</v>
+        <v>0.564118231628706</v>
       </c>
       <c r="G4" t="n">
-        <v>0.149400612847152</v>
+        <v>0.248140017275945</v>
       </c>
       <c r="H4" t="n">
-        <v>0.236431989042402</v>
+        <v>0.268700829179178</v>
       </c>
       <c r="I4" t="n">
-        <v>0.0116272595119868</v>
+        <v>0.0211803375736024</v>
       </c>
       <c r="J4" t="n">
-        <v>0.0210725947298221</v>
+        <v>0.0274048180962618</v>
       </c>
       <c r="K4" t="n">
-        <v>0.0451183205450157</v>
+        <v>0.045893435938261</v>
       </c>
       <c r="L4" t="s">
-        <v>13</v>
+        <v>16</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="s">
+        <v>17</v>
+      </c>
+      <c r="B5" t="n">
+        <v>0.259756097560976</v>
+      </c>
+      <c r="C5" t="n">
+        <v>0.896634615384615</v>
+      </c>
+      <c r="D5" t="n">
+        <v>0.13716319840513</v>
+      </c>
+      <c r="E5" t="n">
+        <v>0.236913850414817</v>
+      </c>
+      <c r="F5" t="n">
+        <v>0.540499435969059</v>
+      </c>
+      <c r="G5" t="n">
+        <v>0.149083391511026</v>
+      </c>
+      <c r="H5" t="n">
+        <v>0.119935623346588</v>
+      </c>
+      <c r="I5" t="n">
+        <v>0.0127217698891671</v>
+      </c>
+      <c r="J5" t="n">
+        <v>0.014907220230102</v>
+      </c>
+      <c r="K5" t="n">
+        <v>0.0448847824829289</v>
+      </c>
+      <c r="L5" t="s">
         <v>16</v>
-      </c>
-      <c r="B5" t="n">
-        <v>0.558609621786924</v>
-      </c>
-      <c r="C5" t="n">
-        <v>0.53808121186619</v>
-      </c>
-      <c r="D5" t="n">
-        <v>0.0521435352825091</v>
-      </c>
-      <c r="E5" t="n">
-        <v>0.0935002439977564</v>
-      </c>
-      <c r="F5" t="n">
-        <v>0.579591362753585</v>
-      </c>
-      <c r="G5" t="n">
-        <v>0.182021276537269</v>
-      </c>
-      <c r="H5" t="n">
-        <v>0.256310128222843</v>
-      </c>
-      <c r="I5" t="n">
-        <v>0.00246858431852295</v>
-      </c>
-      <c r="J5" t="n">
-        <v>0.00893311768490141</v>
-      </c>
-      <c r="K5" t="n">
-        <v>0.0235649970088963</v>
-      </c>
-      <c r="L5" t="s">
-        <v>17</v>
       </c>
     </row>
     <row r="6">
@@ -601,37 +601,37 @@
         <v>18</v>
       </c>
       <c r="B6" t="n">
-        <v>0.114577142662297</v>
+        <v>0.648170731707317</v>
       </c>
       <c r="C6" t="n">
-        <v>0.951293919629708</v>
+        <v>0.418269230769231</v>
       </c>
       <c r="D6" t="n">
-        <v>0.0448989513726513</v>
+        <v>0.165558357801213</v>
       </c>
       <c r="E6" t="n">
-        <v>0.0857279717418042</v>
+        <v>0.235529770040234</v>
       </c>
       <c r="F6" t="n">
-        <v>0.532649278387774</v>
+        <v>0.579590473248818</v>
       </c>
       <c r="G6" t="n">
-        <v>0.076182128194631</v>
+        <v>0.0754817957338721</v>
       </c>
       <c r="H6" t="n">
-        <v>0.0467479190345437</v>
+        <v>0.0388601142723787</v>
       </c>
       <c r="I6" t="n">
-        <v>0.00188760858159914</v>
+        <v>0.0343861740977363</v>
       </c>
       <c r="J6" t="n">
-        <v>0.00325730630345265</v>
+        <v>0.0371520660420865</v>
       </c>
       <c r="K6" t="n">
-        <v>0.0151628849025743</v>
+        <v>0.0281565690368854</v>
       </c>
       <c r="L6" t="s">
-        <v>17</v>
+        <v>13</v>
       </c>
     </row>
     <row r="7">
@@ -639,37 +639,37 @@
         <v>19</v>
       </c>
       <c r="B7" t="n">
-        <v>0.675246313715169</v>
+        <v>0.589939024390244</v>
       </c>
       <c r="C7" t="n">
-        <v>0.344440353460972</v>
+        <v>0.490384615384615</v>
       </c>
       <c r="D7" t="n">
-        <v>0.0485503853529809</v>
+        <v>0.152833756176871</v>
       </c>
       <c r="E7" t="n">
-        <v>0.0850780706534837</v>
+        <v>0.232929132978002</v>
       </c>
       <c r="F7" t="n">
-        <v>0.53443974826651</v>
+        <v>0.547392028362699</v>
       </c>
       <c r="G7" t="n">
-        <v>0.0243307150799008</v>
+        <v>0.0219144905008616</v>
       </c>
       <c r="H7" t="n">
-        <v>0.0589297187714827</v>
+        <v>0.0271964146610211</v>
       </c>
       <c r="I7" t="n">
-        <v>0.010247297776133</v>
+        <v>0.00970931559369976</v>
       </c>
       <c r="J7" t="n">
-        <v>0.0175242336428891</v>
+        <v>0.0131527815083956</v>
       </c>
       <c r="K7" t="n">
-        <v>0.0285976987342888</v>
+        <v>0.0165359159562275</v>
       </c>
       <c r="L7" t="s">
-        <v>13</v>
+        <v>16</v>
       </c>
     </row>
     <row r="8">
@@ -677,37 +677,37 @@
         <v>20</v>
       </c>
       <c r="B8" t="n">
-        <v>0.0762044437353566</v>
+        <v>0.740243902439024</v>
       </c>
       <c r="C8" t="n">
-        <v>0.979460340837366</v>
+        <v>0.262019230769231</v>
       </c>
       <c r="D8" t="n">
-        <v>0.044185447840095</v>
+        <v>0.172532636664641</v>
       </c>
       <c r="E8" t="n">
-        <v>0.0845521577570283</v>
+        <v>0.186890778150744</v>
       </c>
       <c r="F8" t="n">
-        <v>0.518806559752952</v>
+        <v>0.583990250322303</v>
       </c>
       <c r="G8" t="n">
-        <v>0.0357133696829064</v>
+        <v>0.0780551318553938</v>
       </c>
       <c r="H8" t="n">
-        <v>0.0187650373964173</v>
+        <v>0.165499177673639</v>
       </c>
       <c r="I8" t="n">
-        <v>0.000943795937230231</v>
+        <v>0.0358760740429966</v>
       </c>
       <c r="J8" t="n">
-        <v>0.00165979298647141</v>
+        <v>0.0672456246963462</v>
       </c>
       <c r="K8" t="n">
-        <v>0.0108101396598737</v>
+        <v>0.0374494781922887</v>
       </c>
       <c r="L8" t="s">
-        <v>17</v>
+        <v>13</v>
       </c>
     </row>
   </sheetData>

--- a/tt.xlsx
+++ b/tt.xlsx
@@ -14,12 +14,12 @@
   <sheets>
     <sheet name="Sheet 1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="0"/>
+  <calcPr calcId="152511"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="12" uniqueCount="7">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="88" uniqueCount="23">
   <si>
     <t>Accuracy</t>
   </si>
@@ -77,12 +77,71 @@
     </r>
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
+  <si>
+    <t>V1</t>
+  </si>
+  <si>
+    <t>.</t>
+  </si>
+  <si>
+    <t>..1</t>
+  </si>
+  <si>
+    <t>..2</t>
+  </si>
+  <si>
+    <t>avg</t>
+  </si>
+  <si>
+    <t>拿掉Positions</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>拿掉industry_category</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>拿掉'industry_category','Positions','Order_State_EMGBW','Order_State_ST_Mg','Order_State_ST_PE_Mg','Order_State_Bw_Mg','Order_State_Bw_PE_Mg','Order_State_EMGST'</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>拿掉'industry_category','Positions','Order_State_EMGBW','Order_State_ST_Mg','Order_State_ST_PE_Mg','Order_State_Bw_Mg','Order_State_Bw_PE_Mg','Order_State_EMGST'，只取10個</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>拿掉'industry_category','Positions','Order_State_EMGBW','Order_State_ST_Mg','Order_State_ST_PE_Mg','Order_State_Bw_Mg','Order_State_Bw_PE_Mg','Order_State_EMGST'，只取15個</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>什麼都不拿</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>標準模型改成預測跨售任一商品(不嚴謹定義)</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>標準模型多加有網路帳號欄位(第21重要)</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>資料更新至0327</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>標準模型加入sales跟CHANNEL,NA弄成其他</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>標準模型NA弄成其他</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="5" x14ac:knownFonts="1">
+  <fonts count="6" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color rgb="FF000000"/>
@@ -117,6 +176,14 @@
       <name val="細明體"/>
       <family val="3"/>
       <charset val="136"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF000000"/>
+      <name val="細明體"/>
+      <family val="3"/>
+      <charset val="136"/>
+      <scheme val="minor"/>
     </font>
   </fonts>
   <fills count="5">
@@ -188,7 +255,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="9">
+  <cellXfs count="14">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="1" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -203,15 +270,28 @@
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="4" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="一般" xfId="0" builtinId="0"/>
@@ -508,33 +588,33 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:F15"/>
+  <dimension ref="A1:G98"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A11" sqref="A11"/>
+    <sheetView tabSelected="1" topLeftCell="A83" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="A94" sqref="A94"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="17.42578125" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="20" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A1" s="7" t="s">
+      <c r="A1" s="8" t="s">
         <v>5</v>
       </c>
-      <c r="B1" s="6"/>
-      <c r="C1" s="6"/>
-      <c r="D1" s="6"/>
-      <c r="E1" s="6"/>
+      <c r="B1" s="10"/>
+      <c r="C1" s="10"/>
+      <c r="D1" s="10"/>
+      <c r="E1" s="10"/>
       <c r="F1" s="1"/>
     </row>
     <row r="2" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A2" s="5"/>
-      <c r="B2" s="6"/>
-      <c r="C2" s="6"/>
-      <c r="D2" s="6"/>
-      <c r="E2" s="6"/>
+      <c r="A2" s="9"/>
+      <c r="B2" s="10"/>
+      <c r="C2" s="10"/>
+      <c r="D2" s="10"/>
+      <c r="E2" s="10"/>
       <c r="F2" s="1"/>
     </row>
     <row r="3" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -638,7 +718,7 @@
       </c>
     </row>
     <row r="10" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A10" s="8" t="s">
+      <c r="A10" s="7" t="s">
         <v>6</v>
       </c>
     </row>
@@ -740,6 +820,1156 @@
       </c>
       <c r="F15" s="3">
         <v>0.59042570000000005</v>
+      </c>
+    </row>
+    <row r="17" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A17" s="13" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="18" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A18" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="B18" s="3">
+        <v>0.71925749999999999</v>
+      </c>
+      <c r="C18" s="3">
+        <v>0.69686409999999999</v>
+      </c>
+      <c r="D18" s="3">
+        <v>0.72125439999999996</v>
+      </c>
+      <c r="E18" s="3">
+        <v>0.69454119999999997</v>
+      </c>
+      <c r="F18" s="3">
+        <v>0.70797929999999998</v>
+      </c>
+    </row>
+    <row r="19" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A19" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="B19" s="4">
+        <v>0.36283189999999998</v>
+      </c>
+      <c r="C19" s="4">
+        <v>0.3125</v>
+      </c>
+      <c r="D19" s="4">
+        <v>0.375</v>
+      </c>
+      <c r="E19" s="4">
+        <v>0.39285710000000001</v>
+      </c>
+      <c r="F19" s="4">
+        <v>0.36079729999999999</v>
+      </c>
+    </row>
+    <row r="20" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A20" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="B20" s="3">
+        <v>0.19431280000000001</v>
+      </c>
+      <c r="C20" s="3">
+        <v>0.1598174</v>
+      </c>
+      <c r="D20" s="3">
+        <v>0.19811319999999999</v>
+      </c>
+      <c r="E20" s="3">
+        <v>0.1841004</v>
+      </c>
+      <c r="F20" s="3">
+        <v>0.1840859</v>
+      </c>
+    </row>
+    <row r="21" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A21" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="B21" s="4">
+        <v>0.25308639999999999</v>
+      </c>
+      <c r="C21" s="4">
+        <v>0.21148040000000001</v>
+      </c>
+      <c r="D21" s="4">
+        <v>0.25925930000000003</v>
+      </c>
+      <c r="E21" s="4">
+        <v>0.2507123</v>
+      </c>
+      <c r="F21" s="4">
+        <v>0.24363460000000001</v>
+      </c>
+    </row>
+    <row r="22" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A22" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="B22" s="3">
+        <v>0.60357760000000005</v>
+      </c>
+      <c r="C22" s="3">
+        <v>0.54202030000000001</v>
+      </c>
+      <c r="D22" s="3">
+        <v>0.60661830000000005</v>
+      </c>
+      <c r="E22" s="3">
+        <v>0.59828579999999998</v>
+      </c>
+      <c r="F22" s="3">
+        <v>0.58762550000000002</v>
+      </c>
+    </row>
+    <row r="25" spans="1:6" ht="31.5" x14ac:dyDescent="0.25">
+      <c r="A25" s="6" t="s">
+        <v>13</v>
+      </c>
+      <c r="B25" s="5"/>
+      <c r="C25" s="5"/>
+      <c r="D25" s="5"/>
+      <c r="E25" s="5"/>
+      <c r="F25" s="1"/>
+    </row>
+    <row r="26" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A26" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="B26" s="3">
+        <v>0.737819</v>
+      </c>
+      <c r="C26" s="3">
+        <v>0.70731710000000003</v>
+      </c>
+      <c r="D26" s="3">
+        <v>0.71312430000000004</v>
+      </c>
+      <c r="E26" s="3">
+        <v>0.69570270000000001</v>
+      </c>
+      <c r="F26" s="3">
+        <v>0.71349079999999998</v>
+      </c>
+    </row>
+    <row r="27" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A27" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="B27" s="4">
+        <v>0.3362832</v>
+      </c>
+      <c r="C27" s="4">
+        <v>0.32142860000000001</v>
+      </c>
+      <c r="D27" s="4">
+        <v>0.375</v>
+      </c>
+      <c r="E27" s="4">
+        <v>0.41071429999999998</v>
+      </c>
+      <c r="F27" s="4">
+        <v>0.36085650000000002</v>
+      </c>
+    </row>
+    <row r="28" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A28" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="B28" s="3">
+        <v>0.20105819999999999</v>
+      </c>
+      <c r="C28" s="3">
+        <v>0.1698113</v>
+      </c>
+      <c r="D28" s="3">
+        <v>0.1917808</v>
+      </c>
+      <c r="E28" s="3">
+        <v>0.19008259999999999</v>
+      </c>
+      <c r="F28" s="3">
+        <v>0.18818319999999999</v>
+      </c>
+    </row>
+    <row r="29" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A29" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="B29" s="4">
+        <v>0.25165559999999998</v>
+      </c>
+      <c r="C29" s="4">
+        <v>0.22222220000000001</v>
+      </c>
+      <c r="D29" s="4">
+        <v>0.25377640000000001</v>
+      </c>
+      <c r="E29" s="4">
+        <v>0.25988699999999998</v>
+      </c>
+      <c r="F29" s="4">
+        <v>0.2468853</v>
+      </c>
+    </row>
+    <row r="30" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A30" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="B30" s="3">
+        <v>0.62823589999999996</v>
+      </c>
+      <c r="C30" s="3">
+        <v>0.5885705</v>
+      </c>
+      <c r="D30" s="3">
+        <v>0.61678670000000002</v>
+      </c>
+      <c r="E30" s="3">
+        <v>0.59445930000000002</v>
+      </c>
+      <c r="F30" s="3">
+        <v>0.60701309999999997</v>
+      </c>
+    </row>
+    <row r="33" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A33" s="13" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="34" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A34" s="5"/>
+      <c r="B34" s="5"/>
+      <c r="C34" s="5"/>
+      <c r="D34" s="5"/>
+      <c r="E34" s="5"/>
+      <c r="F34" s="1"/>
+    </row>
+    <row r="35" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A35" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="B35" s="3">
+        <v>0.72041759999999999</v>
+      </c>
+      <c r="C35" s="3">
+        <v>0.69454119999999997</v>
+      </c>
+      <c r="D35" s="3">
+        <v>0.70847850000000001</v>
+      </c>
+      <c r="E35" s="3">
+        <v>0.7026713</v>
+      </c>
+      <c r="F35" s="3">
+        <v>0.70652720000000002</v>
+      </c>
+    </row>
+    <row r="36" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A36" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="B36" s="4">
+        <v>0.30973450000000002</v>
+      </c>
+      <c r="C36" s="4">
+        <v>0.3125</v>
+      </c>
+      <c r="D36" s="4">
+        <v>0.375</v>
+      </c>
+      <c r="E36" s="4">
+        <v>0.4375</v>
+      </c>
+      <c r="F36" s="4">
+        <v>0.35868359999999999</v>
+      </c>
+    </row>
+    <row r="37" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A37" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="B37" s="3">
+        <v>0.1767677</v>
+      </c>
+      <c r="C37" s="3">
+        <v>0.15837100000000001</v>
+      </c>
+      <c r="D37" s="3">
+        <v>0.1883408</v>
+      </c>
+      <c r="E37" s="3">
+        <v>0.2024793</v>
+      </c>
+      <c r="F37" s="3">
+        <v>0.1814897</v>
+      </c>
+    </row>
+    <row r="38" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A38" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="B38" s="4">
+        <v>0.22508040000000001</v>
+      </c>
+      <c r="C38" s="4">
+        <v>0.21021020000000001</v>
+      </c>
+      <c r="D38" s="4">
+        <v>0.25074629999999998</v>
+      </c>
+      <c r="E38" s="4">
+        <v>0.27683619999999998</v>
+      </c>
+      <c r="F38" s="4">
+        <v>0.2407183</v>
+      </c>
+    </row>
+    <row r="39" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A39" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="B39" s="3">
+        <v>0.59746920000000003</v>
+      </c>
+      <c r="C39" s="3">
+        <v>0.57173850000000004</v>
+      </c>
+      <c r="D39" s="3">
+        <v>0.62819469999999999</v>
+      </c>
+      <c r="E39" s="3">
+        <v>0.61565420000000004</v>
+      </c>
+      <c r="F39" s="3">
+        <v>0.60326420000000003</v>
+      </c>
+    </row>
+    <row r="43" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A43" s="13" t="s">
+        <v>15</v>
+      </c>
+      <c r="B43" s="5"/>
+      <c r="C43" s="5"/>
+      <c r="D43" s="5"/>
+      <c r="E43" s="5"/>
+      <c r="F43" s="1"/>
+    </row>
+    <row r="44" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A44" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="B44" s="3">
+        <v>0.78422270000000005</v>
+      </c>
+      <c r="C44" s="3">
+        <v>0.73054589999999997</v>
+      </c>
+      <c r="D44" s="3">
+        <v>0.78861789999999998</v>
+      </c>
+      <c r="E44" s="3">
+        <v>0.73635309999999998</v>
+      </c>
+      <c r="F44" s="3">
+        <v>0.75993489999999997</v>
+      </c>
+    </row>
+    <row r="45" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A45" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="B45" s="4">
+        <v>0.30088500000000001</v>
+      </c>
+      <c r="C45" s="4">
+        <v>0.19642860000000001</v>
+      </c>
+      <c r="D45" s="4">
+        <v>0.23214290000000001</v>
+      </c>
+      <c r="E45" s="4">
+        <v>0.30357139999999999</v>
+      </c>
+      <c r="F45" s="4">
+        <v>0.25825700000000001</v>
+      </c>
+    </row>
+    <row r="46" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A46" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="B46" s="3">
+        <v>0.24113480000000001</v>
+      </c>
+      <c r="C46" s="3">
+        <v>0.1341463</v>
+      </c>
+      <c r="D46" s="3">
+        <v>0.21311479999999999</v>
+      </c>
+      <c r="E46" s="3">
+        <v>0.18579229999999999</v>
+      </c>
+      <c r="F46" s="3">
+        <v>0.193547</v>
+      </c>
+    </row>
+    <row r="47" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A47" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="B47" s="4">
+        <v>0.26771650000000002</v>
+      </c>
+      <c r="C47" s="4">
+        <v>0.15942029999999999</v>
+      </c>
+      <c r="D47" s="4">
+        <v>0.22222220000000001</v>
+      </c>
+      <c r="E47" s="4">
+        <v>0.23050850000000001</v>
+      </c>
+      <c r="F47" s="4">
+        <v>0.21996689999999999</v>
+      </c>
+    </row>
+    <row r="48" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A48" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="B48" s="3">
+        <v>0.63680190000000003</v>
+      </c>
+      <c r="C48" s="3">
+        <v>0.51897769999999999</v>
+      </c>
+      <c r="D48" s="3">
+        <v>0.57527890000000004</v>
+      </c>
+      <c r="E48" s="3">
+        <v>0.56311990000000001</v>
+      </c>
+      <c r="F48" s="3">
+        <v>0.57354459999999996</v>
+      </c>
+    </row>
+    <row r="51" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A51" s="13" t="s">
+        <v>16</v>
+      </c>
+      <c r="B51" s="5"/>
+      <c r="C51" s="5"/>
+      <c r="D51" s="5"/>
+      <c r="E51" s="5"/>
+      <c r="F51" s="1"/>
+    </row>
+    <row r="52" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A52" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="B52" s="3">
+        <v>0.74709979999999998</v>
+      </c>
+      <c r="C52" s="3">
+        <v>0.71080140000000003</v>
+      </c>
+      <c r="D52" s="3">
+        <v>0.73054589999999997</v>
+      </c>
+      <c r="E52" s="3">
+        <v>0.71777000000000002</v>
+      </c>
+      <c r="F52" s="3">
+        <v>0.72655429999999999</v>
+      </c>
+    </row>
+    <row r="53" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A53" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="B53" s="4">
+        <v>0.3716814</v>
+      </c>
+      <c r="C53" s="4">
+        <v>0.30357139999999999</v>
+      </c>
+      <c r="D53" s="4">
+        <v>0.375</v>
+      </c>
+      <c r="E53" s="4">
+        <v>0.35714289999999999</v>
+      </c>
+      <c r="F53" s="4">
+        <v>0.35184890000000002</v>
+      </c>
+    </row>
+    <row r="54" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A54" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="B54" s="3">
+        <v>0.22222220000000001</v>
+      </c>
+      <c r="C54" s="3">
+        <v>0.16585369999999999</v>
+      </c>
+      <c r="D54" s="3">
+        <v>0.20588239999999999</v>
+      </c>
+      <c r="E54" s="3">
+        <v>0.18957350000000001</v>
+      </c>
+      <c r="F54" s="3">
+        <v>0.1958829</v>
+      </c>
+    </row>
+    <row r="55" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A55" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="B55" s="4">
+        <v>0.2781457</v>
+      </c>
+      <c r="C55" s="4">
+        <v>0.21451100000000001</v>
+      </c>
+      <c r="D55" s="4">
+        <v>0.26582280000000003</v>
+      </c>
+      <c r="E55" s="4">
+        <v>0.24767800000000001</v>
+      </c>
+      <c r="F55" s="4">
+        <v>0.25153940000000002</v>
+      </c>
+    </row>
+    <row r="56" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A56" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="B56" s="3">
+        <v>0.62789320000000004</v>
+      </c>
+      <c r="C56" s="3">
+        <v>0.56103380000000003</v>
+      </c>
+      <c r="D56" s="3">
+        <v>0.63789810000000002</v>
+      </c>
+      <c r="E56" s="3">
+        <v>0.55648010000000003</v>
+      </c>
+      <c r="F56" s="3">
+        <v>0.59582630000000003</v>
+      </c>
+    </row>
+    <row r="60" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A60" s="6" t="s">
+        <v>17</v>
+      </c>
+      <c r="B60" s="5"/>
+      <c r="C60" s="5"/>
+      <c r="D60" s="5"/>
+      <c r="E60" s="5"/>
+      <c r="F60" s="1"/>
+    </row>
+    <row r="61" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A61" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="B61" s="3">
+        <v>0.75174010000000002</v>
+      </c>
+      <c r="C61" s="3">
+        <v>0.76538910000000004</v>
+      </c>
+      <c r="D61" s="3">
+        <v>0.70499420000000002</v>
+      </c>
+      <c r="E61" s="3">
+        <v>0.75958190000000003</v>
+      </c>
+      <c r="F61" s="3">
+        <v>0.74542629999999999</v>
+      </c>
+    </row>
+    <row r="62" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A62" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="B62" s="4">
+        <v>0.19469030000000001</v>
+      </c>
+      <c r="C62" s="4">
+        <v>0.23214290000000001</v>
+      </c>
+      <c r="D62" s="4">
+        <v>0.35714289999999999</v>
+      </c>
+      <c r="E62" s="4">
+        <v>0.29464289999999999</v>
+      </c>
+      <c r="F62" s="4">
+        <v>0.26965470000000002</v>
+      </c>
+    </row>
+    <row r="63" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A63" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="B63" s="3">
+        <v>0.1517241</v>
+      </c>
+      <c r="C63" s="3">
+        <v>0.1830986</v>
+      </c>
+      <c r="D63" s="3">
+        <v>0.18018020000000001</v>
+      </c>
+      <c r="E63" s="3">
+        <v>0.20496890000000001</v>
+      </c>
+      <c r="F63" s="3">
+        <v>0.17999299999999999</v>
+      </c>
+    </row>
+    <row r="64" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A64" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="B64" s="4">
+        <v>0.17054259999999999</v>
+      </c>
+      <c r="C64" s="4">
+        <v>0.2047244</v>
+      </c>
+      <c r="D64" s="4">
+        <v>0.23952100000000001</v>
+      </c>
+      <c r="E64" s="4">
+        <v>0.24175820000000001</v>
+      </c>
+      <c r="F64" s="4">
+        <v>0.21413660000000001</v>
+      </c>
+    </row>
+    <row r="65" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A65" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="B65" s="3">
+        <v>0.58753259999999996</v>
+      </c>
+      <c r="C65" s="3">
+        <v>0.59957320000000003</v>
+      </c>
+      <c r="D65" s="3">
+        <v>0.58123930000000001</v>
+      </c>
+      <c r="E65" s="3">
+        <v>0.61741849999999998</v>
+      </c>
+      <c r="F65" s="3">
+        <v>0.59644090000000005</v>
+      </c>
+    </row>
+    <row r="67" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A67" s="13" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="68" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A68" s="11" t="s">
+        <v>7</v>
+      </c>
+      <c r="B68" s="11" t="s">
+        <v>8</v>
+      </c>
+      <c r="C68" s="11" t="s">
+        <v>9</v>
+      </c>
+      <c r="D68" s="11" t="s">
+        <v>10</v>
+      </c>
+      <c r="E68" s="11" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="69" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A69" s="12"/>
+      <c r="B69" s="12"/>
+      <c r="C69" s="12"/>
+      <c r="D69" s="12"/>
+      <c r="E69" s="12"/>
+      <c r="F69" s="12"/>
+    </row>
+    <row r="70" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A70" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="B70" s="3">
+        <v>0.91435306000000005</v>
+      </c>
+      <c r="C70" s="3">
+        <v>0.90543549000000001</v>
+      </c>
+      <c r="D70" s="3">
+        <v>0.90112623999999997</v>
+      </c>
+      <c r="E70" s="3">
+        <v>0.90635231999999999</v>
+      </c>
+      <c r="F70" s="3">
+        <v>0.90681677999999999</v>
+      </c>
+    </row>
+    <row r="71" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A71" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="B71" s="4">
+        <v>7.9847909999999994E-2</v>
+      </c>
+      <c r="C71" s="4">
+        <v>6.2737639999999997E-2</v>
+      </c>
+      <c r="D71" s="4">
+        <v>5.8935359999999999E-2</v>
+      </c>
+      <c r="E71" s="4">
+        <v>4.942966E-2</v>
+      </c>
+      <c r="F71" s="4">
+        <v>6.2737639999999997E-2</v>
+      </c>
+    </row>
+    <row r="72" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A72" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="B72" s="3">
+        <v>0.19811321000000001</v>
+      </c>
+      <c r="C72" s="3">
+        <v>0.12595419999999999</v>
+      </c>
+      <c r="D72" s="3">
+        <v>0.10652921</v>
+      </c>
+      <c r="E72" s="3">
+        <v>0.10788382000000001</v>
+      </c>
+      <c r="F72" s="3">
+        <v>0.13462010999999999</v>
+      </c>
+    </row>
+    <row r="73" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A73" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="B73" s="4">
+        <v>0.11382114</v>
+      </c>
+      <c r="C73" s="4">
+        <v>8.3756349999999993E-2</v>
+      </c>
+      <c r="D73" s="4">
+        <v>7.5887389999999999E-2</v>
+      </c>
+      <c r="E73" s="4">
+        <v>6.7796609999999993E-2</v>
+      </c>
+      <c r="F73" s="4">
+        <v>8.5315370000000001E-2</v>
+      </c>
+    </row>
+    <row r="74" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A74" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="B74" s="3">
+        <v>0.67879520000000004</v>
+      </c>
+      <c r="C74" s="3">
+        <v>0.67681491000000005</v>
+      </c>
+      <c r="D74" s="3">
+        <v>0.65543790000000002</v>
+      </c>
+      <c r="E74" s="3">
+        <v>0.57620046999999996</v>
+      </c>
+      <c r="F74" s="3">
+        <v>0.64681211999999999</v>
+      </c>
+    </row>
+    <row r="76" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A76" s="13" t="s">
+        <v>19</v>
+      </c>
+      <c r="G76" s="13" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="77" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A77" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="B77" s="3">
+        <v>0.68806310000000004</v>
+      </c>
+      <c r="C77" s="3">
+        <v>0.70462230000000003</v>
+      </c>
+      <c r="D77" s="3">
+        <v>0.68243240000000005</v>
+      </c>
+      <c r="E77" s="3">
+        <v>0.70913190000000004</v>
+      </c>
+      <c r="F77" s="3">
+        <v>0.69606239999999997</v>
+      </c>
+    </row>
+    <row r="78" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A78" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="B78" s="4">
+        <v>0.33620689999999998</v>
+      </c>
+      <c r="C78" s="4">
+        <v>0.4482759</v>
+      </c>
+      <c r="D78" s="4">
+        <v>0.31034479999999998</v>
+      </c>
+      <c r="E78" s="4">
+        <v>0.26724140000000002</v>
+      </c>
+      <c r="F78" s="4">
+        <v>0.34051720000000002</v>
+      </c>
+    </row>
+    <row r="79" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A79" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="B79" s="3">
+        <v>0.16317989999999999</v>
+      </c>
+      <c r="C79" s="3">
+        <v>0.20799999999999999</v>
+      </c>
+      <c r="D79" s="3">
+        <v>0.15126049999999999</v>
+      </c>
+      <c r="E79" s="3">
+        <v>0.15196080000000001</v>
+      </c>
+      <c r="F79" s="3">
+        <v>0.16860030000000001</v>
+      </c>
+    </row>
+    <row r="80" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A80" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="B80" s="4">
+        <v>0.21971830000000001</v>
+      </c>
+      <c r="C80" s="4">
+        <v>0.28415299999999999</v>
+      </c>
+      <c r="D80" s="4">
+        <v>0.20338980000000001</v>
+      </c>
+      <c r="E80" s="4">
+        <v>0.19375000000000001</v>
+      </c>
+      <c r="F80" s="4">
+        <v>0.2252528</v>
+      </c>
+    </row>
+    <row r="81" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A81" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="B81" s="3">
+        <v>0.57902670000000001</v>
+      </c>
+      <c r="C81" s="3">
+        <v>0.64095000000000002</v>
+      </c>
+      <c r="D81" s="3">
+        <v>0.551311</v>
+      </c>
+      <c r="E81" s="3">
+        <v>0.59047810000000001</v>
+      </c>
+      <c r="F81" s="3">
+        <v>0.59044140000000001</v>
+      </c>
+    </row>
+    <row r="84" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A84" s="11" t="s">
+        <v>7</v>
+      </c>
+      <c r="B84" s="11" t="s">
+        <v>8</v>
+      </c>
+      <c r="C84" s="11" t="s">
+        <v>9</v>
+      </c>
+      <c r="D84" s="11" t="s">
+        <v>10</v>
+      </c>
+      <c r="E84" s="11" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="85" spans="1:6" ht="21" x14ac:dyDescent="0.25">
+      <c r="A85" s="6" t="s">
+        <v>21</v>
+      </c>
+      <c r="B85" s="5"/>
+      <c r="C85" s="5"/>
+      <c r="D85" s="5"/>
+      <c r="E85" s="5"/>
+      <c r="F85" s="1"/>
+    </row>
+    <row r="86" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A86" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="B86" s="3">
+        <v>0.69031529999999997</v>
+      </c>
+      <c r="C86" s="3">
+        <v>0.70687710000000004</v>
+      </c>
+      <c r="D86" s="3">
+        <v>0.65878380000000003</v>
+      </c>
+      <c r="E86" s="3">
+        <v>0.70800450000000004</v>
+      </c>
+      <c r="F86" s="3">
+        <v>0.69099520000000003</v>
+      </c>
+    </row>
+    <row r="87" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A87" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="B87" s="4">
+        <v>0.38793100000000003</v>
+      </c>
+      <c r="C87" s="4">
+        <v>0.39655170000000001</v>
+      </c>
+      <c r="D87" s="4">
+        <v>0.32758619999999999</v>
+      </c>
+      <c r="E87" s="4">
+        <v>0.35344829999999999</v>
+      </c>
+      <c r="F87" s="4">
+        <v>0.36637930000000002</v>
+      </c>
+    </row>
+    <row r="88" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A88" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="B88" s="3">
+        <v>0.18072289999999999</v>
+      </c>
+      <c r="C88" s="3">
+        <v>0.19491530000000001</v>
+      </c>
+      <c r="D88" s="3">
+        <v>0.1444867</v>
+      </c>
+      <c r="E88" s="3">
+        <v>0.1822222</v>
+      </c>
+      <c r="F88" s="3">
+        <v>0.17558679999999999</v>
+      </c>
+    </row>
+    <row r="89" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A89" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="B89" s="4">
+        <v>0.2465753</v>
+      </c>
+      <c r="C89" s="4">
+        <v>0.26136359999999997</v>
+      </c>
+      <c r="D89" s="4">
+        <v>0.2005277</v>
+      </c>
+      <c r="E89" s="4">
+        <v>0.24046919999999999</v>
+      </c>
+      <c r="F89" s="4">
+        <v>0.237234</v>
+      </c>
+    </row>
+    <row r="90" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A90" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="B90" s="3">
+        <v>0.55611259999999996</v>
+      </c>
+      <c r="C90" s="3">
+        <v>0.62024239999999997</v>
+      </c>
+      <c r="D90" s="3">
+        <v>0.5396976</v>
+      </c>
+      <c r="E90" s="3">
+        <v>0.60523729999999998</v>
+      </c>
+      <c r="F90" s="3">
+        <v>0.58032249999999996</v>
+      </c>
+    </row>
+    <row r="92" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A92" s="11" t="s">
+        <v>7</v>
+      </c>
+      <c r="B92" s="11" t="s">
+        <v>8</v>
+      </c>
+      <c r="C92" s="11" t="s">
+        <v>9</v>
+      </c>
+      <c r="D92" s="11" t="s">
+        <v>10</v>
+      </c>
+      <c r="E92" s="11" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="93" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A93" s="6" t="s">
+        <v>22</v>
+      </c>
+      <c r="B93" s="12"/>
+      <c r="C93" s="12"/>
+      <c r="D93" s="12"/>
+      <c r="E93" s="12"/>
+      <c r="F93" s="12"/>
+    </row>
+    <row r="94" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A94" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="B94" s="3">
+        <v>0.68355860000000002</v>
+      </c>
+      <c r="C94" s="3">
+        <v>0.69447579999999998</v>
+      </c>
+      <c r="D94" s="3">
+        <v>0.66328830000000005</v>
+      </c>
+      <c r="E94" s="3">
+        <v>0.70011270000000003</v>
+      </c>
+      <c r="F94" s="3">
+        <v>0.68535880000000005</v>
+      </c>
+    </row>
+    <row r="95" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A95" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="B95" s="4">
+        <v>0.37068970000000001</v>
+      </c>
+      <c r="C95" s="4">
+        <v>0.39655170000000001</v>
+      </c>
+      <c r="D95" s="4">
+        <v>0.2758621</v>
+      </c>
+      <c r="E95" s="4">
+        <v>0.32758619999999999</v>
+      </c>
+      <c r="F95" s="4">
+        <v>0.34267239999999999</v>
+      </c>
+    </row>
+    <row r="96" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A96" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="B96" s="3">
+        <v>0.17131469999999999</v>
+      </c>
+      <c r="C96" s="3">
+        <v>0.18623480000000001</v>
+      </c>
+      <c r="D96" s="3">
+        <v>0.12955469999999999</v>
+      </c>
+      <c r="E96" s="3">
+        <v>0.1681416</v>
+      </c>
+      <c r="F96" s="3">
+        <v>0.1638115</v>
+      </c>
+    </row>
+    <row r="97" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A97" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="B97" s="4">
+        <v>0.2343324</v>
+      </c>
+      <c r="C97" s="4">
+        <v>0.25344349999999999</v>
+      </c>
+      <c r="D97" s="4">
+        <v>0.17630850000000001</v>
+      </c>
+      <c r="E97" s="4">
+        <v>0.22222220000000001</v>
+      </c>
+      <c r="F97" s="4">
+        <v>0.22157669999999999</v>
+      </c>
+    </row>
+    <row r="98" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A98" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="B98" s="3">
+        <v>0.56736869999999995</v>
+      </c>
+      <c r="C98" s="3">
+        <v>0.60581870000000004</v>
+      </c>
+      <c r="D98" s="3">
+        <v>0.54076959999999996</v>
+      </c>
+      <c r="E98" s="3">
+        <v>0.58949419999999997</v>
+      </c>
+      <c r="F98" s="3">
+        <v>0.57586280000000001</v>
       </c>
     </row>
   </sheetData>
